--- a/data/trans_orig/P39A4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A5DA4E-766E-4B35-85DF-6C11A8849F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D998DF2A-474D-422B-B0F1-0DAC371AC20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F59C621F-07EB-4DAF-88B3-4A966EF3C6A6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{148BC2A0-2037-47FE-A72C-951CFAC9E237}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="176">
   <si>
     <t>Población según si diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,49%)</t>
   </si>
@@ -74,19 +74,19 @@
     <t>92,2%</t>
   </si>
   <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>93,98%</t>
@@ -95,7 +95,7 @@
     <t>91,47%</t>
   </si>
   <si>
-    <t>95,75%</t>
+    <t>95,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,25 +104,25 @@
     <t>7,8%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>4,25%</t>
+    <t>4,18%</t>
   </si>
   <si>
     <t>8,53%</t>
@@ -137,55 +137,55 @@
     <t>97,91%</t>
   </si>
   <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>91,11%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>89,41%</t>
   </si>
   <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>98,21%</t>
   </si>
   <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>92,33%</t>
   </si>
   <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -314,16 +314,19 @@
     <t>97,69%</t>
   </si>
   <si>
-    <t>93,94%</t>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -338,16 +341,19 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>6,06%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -356,217 +362,205 @@
     <t>95,24%</t>
   </si>
   <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
     <t>91,85%</t>
   </si>
   <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -981,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58630422-041A-4A2B-9D7F-90C1554E95EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0746255-4744-46A4-9309-ABE639BB21B6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1746,7 +1740,7 @@
         <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>748</v>
@@ -1755,13 +1749,13 @@
         <v>415178</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1791,13 +1785,13 @@
         <v>5250</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1806,13 +1800,13 @@
         <v>5250</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,7 +1862,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1880,13 +1874,13 @@
         <v>243334</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>378</v>
@@ -1895,13 +1889,13 @@
         <v>238867</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>692</v>
@@ -1910,13 +1904,13 @@
         <v>482201</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1931,13 +1925,13 @@
         <v>12155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -1946,13 +1940,13 @@
         <v>7635</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -1961,10 +1955,10 @@
         <v>19790</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>122</v>
@@ -2068,10 +2062,10 @@
         <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2080,13 @@
         <v>126134</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>184</v>
@@ -2101,13 +2095,13 @@
         <v>122674</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>311</v>
@@ -2116,13 +2110,13 @@
         <v>248807</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,7 +2172,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2190,13 +2184,13 @@
         <v>725830</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>939</v>
@@ -2205,13 +2199,13 @@
         <v>769502</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>1587</v>
@@ -2220,13 +2214,13 @@
         <v>1495331</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2235,13 @@
         <v>31547</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -2256,13 +2250,13 @@
         <v>22741</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>56</v>
@@ -2271,13 +2265,13 @@
         <v>54289</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,13 +2339,13 @@
         <v>2913775</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>4601</v>
@@ -2360,13 +2354,13 @@
         <v>3284536</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>7492</v>
@@ -2375,13 +2369,13 @@
         <v>6198311</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2390,13 @@
         <v>232313</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>358</v>
@@ -2411,13 +2405,13 @@
         <v>252022</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>594</v>
@@ -2426,13 +2420,13 @@
         <v>484334</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,7 +2482,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D998DF2A-474D-422B-B0F1-0DAC371AC20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{279C283E-DCA5-48D7-B9B0-50D48621AE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{148BC2A0-2037-47FE-A72C-951CFAC9E237}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{390BD65B-B350-4B2D-8E5B-8B43C2D75DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -975,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0746255-4744-46A4-9309-ABE639BB21B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA007AA-8BC7-41BE-8FEC-0FBFAC59A219}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{279C283E-DCA5-48D7-B9B0-50D48621AE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0775D00-5879-4129-829E-9D78D5F787D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{390BD65B-B350-4B2D-8E5B-8B43C2D75DF0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50B91325-55CD-4DC7-9BF0-119B4B676143}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="178">
   <si>
     <t>Población según si diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,49%)</t>
   </si>
@@ -74,472 +74,481 @@
     <t>92,2%</t>
   </si>
   <si>
-    <t>87,74%</t>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>7,8%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
     <t>92,62%</t>
   </si>
   <si>
     <t>91,48%</t>
   </si>
   <si>
-    <t>93,77%</t>
+    <t>93,7%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>91,37%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>6,23%</t>
+    <t>6,3%</t>
   </si>
   <si>
     <t>8,52%</t>
@@ -548,19 +557,16 @@
     <t>7,13%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
+    <t>8,63%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -975,7 +981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA007AA-8BC7-41BE-8FEC-0FBFAC59A219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7EBD32-AFE7-4BA2-8BB1-85D3BB5BABCE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1740,7 +1746,7 @@
         <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>748</v>
@@ -1749,13 +1755,13 @@
         <v>415178</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1785,13 +1791,13 @@
         <v>5250</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1800,13 +1806,13 @@
         <v>5250</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,7 +1868,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1874,13 +1880,13 @@
         <v>243334</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>378</v>
@@ -1889,13 +1895,13 @@
         <v>238867</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>692</v>
@@ -1904,13 +1910,13 @@
         <v>482201</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1931,13 @@
         <v>12155</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -1940,13 +1946,13 @@
         <v>7635</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -1955,10 +1961,10 @@
         <v>19790</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>122</v>
@@ -2062,10 +2068,10 @@
         <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2086,13 @@
         <v>126134</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>184</v>
@@ -2095,13 +2101,13 @@
         <v>122674</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>311</v>
@@ -2110,13 +2116,13 @@
         <v>248807</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,7 +2178,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2184,13 +2190,13 @@
         <v>725830</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>939</v>
@@ -2199,13 +2205,13 @@
         <v>769502</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>1587</v>
@@ -2214,13 +2220,13 @@
         <v>1495331</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2241,13 @@
         <v>31547</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -2250,13 +2256,13 @@
         <v>22741</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>56</v>
@@ -2265,13 +2271,13 @@
         <v>54289</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2345,13 @@
         <v>2913775</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>4601</v>
@@ -2354,13 +2360,13 @@
         <v>3284536</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="M28" s="7">
         <v>7492</v>
@@ -2369,13 +2375,13 @@
         <v>6198311</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2396,13 @@
         <v>232313</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>358</v>
@@ -2405,13 +2411,13 @@
         <v>252022</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>594</v>
@@ -2420,13 +2426,13 @@
         <v>484334</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,7 +2488,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0775D00-5879-4129-829E-9D78D5F787D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74CA627C-7AE4-46EA-A5DB-97D3A9E79107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50B91325-55CD-4DC7-9BF0-119B4B676143}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2D3A6355-1B19-4379-B222-CB3A67F5CE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="180">
   <si>
     <t>Población según si diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,49%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,172 +134,172 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -311,262 +311,268 @@
     <t>99,3%</t>
   </si>
   <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -981,7 +987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7EBD32-AFE7-4BA2-8BB1-85D3BB5BABCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD150C8D-9AB4-42FA-821A-2288A5B66AA8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1102,7 +1108,7 @@
         <v>308</v>
       </c>
       <c r="D4" s="7">
-        <v>239346</v>
+        <v>284109</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1117,7 +1123,7 @@
         <v>507</v>
       </c>
       <c r="I4" s="7">
-        <v>256135</v>
+        <v>271919</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1132,7 +1138,7 @@
         <v>815</v>
       </c>
       <c r="N4" s="7">
-        <v>495481</v>
+        <v>556028</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1153,7 +1159,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="7">
-        <v>20247</v>
+        <v>26603</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1168,7 +1174,7 @@
         <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>11517</v>
+        <v>11937</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1183,7 +1189,7 @@
         <v>50</v>
       </c>
       <c r="N5" s="7">
-        <v>31764</v>
+        <v>38540</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1204,7 +1210,7 @@
         <v>330</v>
       </c>
       <c r="D6" s="7">
-        <v>259593</v>
+        <v>310712</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1219,7 +1225,7 @@
         <v>535</v>
       </c>
       <c r="I6" s="7">
-        <v>267652</v>
+        <v>283856</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1234,7 +1240,7 @@
         <v>865</v>
       </c>
       <c r="N6" s="7">
-        <v>527245</v>
+        <v>594568</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1257,7 +1263,7 @@
         <v>367</v>
       </c>
       <c r="D7" s="7">
-        <v>500975</v>
+        <v>500461</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1272,7 +1278,7 @@
         <v>673</v>
       </c>
       <c r="I7" s="7">
-        <v>523997</v>
+        <v>486767</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1287,7 +1293,7 @@
         <v>1040</v>
       </c>
       <c r="N7" s="7">
-        <v>1024971</v>
+        <v>987228</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1308,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>10672</v>
+        <v>10745</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1323,7 +1329,7 @@
         <v>18</v>
       </c>
       <c r="I8" s="7">
-        <v>13715</v>
+        <v>12941</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1338,7 +1344,7 @@
         <v>25</v>
       </c>
       <c r="N8" s="7">
-        <v>24388</v>
+        <v>23686</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1359,7 +1365,7 @@
         <v>374</v>
       </c>
       <c r="D9" s="7">
-        <v>511647</v>
+        <v>511206</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1374,7 +1380,7 @@
         <v>691</v>
       </c>
       <c r="I9" s="7">
-        <v>537712</v>
+        <v>499708</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1389,7 +1395,7 @@
         <v>1065</v>
       </c>
       <c r="N9" s="7">
-        <v>1049359</v>
+        <v>1010914</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1412,7 +1418,7 @@
         <v>303</v>
       </c>
       <c r="D10" s="7">
-        <v>275478</v>
+        <v>270626</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1427,7 +1433,7 @@
         <v>428</v>
       </c>
       <c r="I10" s="7">
-        <v>301469</v>
+        <v>281994</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1442,7 +1448,7 @@
         <v>731</v>
       </c>
       <c r="N10" s="7">
-        <v>576947</v>
+        <v>552621</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1463,7 +1469,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>26895</v>
+        <v>25966</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1478,7 +1484,7 @@
         <v>63</v>
       </c>
       <c r="I11" s="7">
-        <v>41432</v>
+        <v>39120</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1493,7 +1499,7 @@
         <v>96</v>
       </c>
       <c r="N11" s="7">
-        <v>68327</v>
+        <v>65086</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1514,7 +1520,7 @@
         <v>336</v>
       </c>
       <c r="D12" s="7">
-        <v>302373</v>
+        <v>296592</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1529,7 +1535,7 @@
         <v>491</v>
       </c>
       <c r="I12" s="7">
-        <v>342901</v>
+        <v>321114</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1544,7 +1550,7 @@
         <v>827</v>
       </c>
       <c r="N12" s="7">
-        <v>645274</v>
+        <v>617707</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1567,7 +1573,7 @@
         <v>233</v>
       </c>
       <c r="D13" s="7">
-        <v>255615</v>
+        <v>245620</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1582,7 +1588,7 @@
         <v>476</v>
       </c>
       <c r="I13" s="7">
-        <v>325737</v>
+        <v>301439</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1597,7 +1603,7 @@
         <v>709</v>
       </c>
       <c r="N13" s="7">
-        <v>581353</v>
+        <v>547060</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1618,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>4662</v>
+        <v>4456</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1633,7 +1639,7 @@
         <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>27057</v>
+        <v>80634</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1648,7 +1654,7 @@
         <v>22</v>
       </c>
       <c r="N14" s="7">
-        <v>31719</v>
+        <v>85090</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1669,7 +1675,7 @@
         <v>239</v>
       </c>
       <c r="D15" s="7">
-        <v>260277</v>
+        <v>250076</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1684,7 +1690,7 @@
         <v>492</v>
       </c>
       <c r="I15" s="7">
-        <v>352794</v>
+        <v>382073</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1699,7 +1705,7 @@
         <v>731</v>
       </c>
       <c r="N15" s="7">
-        <v>613072</v>
+        <v>632150</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1722,7 +1728,7 @@
         <v>272</v>
       </c>
       <c r="D16" s="7">
-        <v>193029</v>
+        <v>175367</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1737,7 +1743,7 @@
         <v>476</v>
       </c>
       <c r="I16" s="7">
-        <v>222149</v>
+        <v>200142</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -1746,22 +1752,22 @@
         <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>748</v>
       </c>
       <c r="N16" s="7">
-        <v>415178</v>
+        <v>375509</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,43 +1782,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>5250</v>
+        <v>4409</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>5250</v>
+        <v>4409</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,7 +1830,7 @@
         <v>272</v>
       </c>
       <c r="D18" s="7">
-        <v>193029</v>
+        <v>175367</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1839,7 +1845,7 @@
         <v>481</v>
       </c>
       <c r="I18" s="7">
-        <v>227399</v>
+        <v>204551</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1854,7 +1860,7 @@
         <v>753</v>
       </c>
       <c r="N18" s="7">
-        <v>420428</v>
+        <v>379918</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1868,7 +1874,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1877,46 +1883,46 @@
         <v>314</v>
       </c>
       <c r="D19" s="7">
-        <v>243334</v>
+        <v>236816</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>378</v>
       </c>
       <c r="I19" s="7">
-        <v>238867</v>
+        <v>222651</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>692</v>
       </c>
       <c r="N19" s="7">
-        <v>482201</v>
+        <v>459466</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,46 +1934,46 @@
         <v>16</v>
       </c>
       <c r="D20" s="7">
-        <v>12155</v>
+        <v>11756</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
       </c>
       <c r="I20" s="7">
-        <v>7635</v>
+        <v>7275</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
       </c>
       <c r="N20" s="7">
-        <v>19790</v>
+        <v>19031</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,7 +1985,7 @@
         <v>330</v>
       </c>
       <c r="D21" s="7">
-        <v>255489</v>
+        <v>248572</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1994,7 +2000,7 @@
         <v>391</v>
       </c>
       <c r="I21" s="7">
-        <v>246502</v>
+        <v>229926</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2009,7 +2015,7 @@
         <v>721</v>
       </c>
       <c r="N21" s="7">
-        <v>501991</v>
+        <v>478497</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2023,7 +2029,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2032,46 +2038,46 @@
         <v>446</v>
       </c>
       <c r="D22" s="7">
-        <v>480168</v>
+        <v>478647</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>724</v>
       </c>
       <c r="I22" s="7">
-        <v>646679</v>
+        <v>703749</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1170</v>
       </c>
       <c r="N22" s="7">
-        <v>1126848</v>
+        <v>1182396</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,46 +2089,46 @@
         <v>127</v>
       </c>
       <c r="D23" s="7">
-        <v>126134</v>
+        <v>125527</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>184</v>
       </c>
       <c r="I23" s="7">
-        <v>122674</v>
+        <v>114604</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>311</v>
       </c>
       <c r="N23" s="7">
-        <v>248807</v>
+        <v>240131</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,7 +2140,7 @@
         <v>573</v>
       </c>
       <c r="D24" s="7">
-        <v>606302</v>
+        <v>604174</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2149,7 +2155,7 @@
         <v>908</v>
       </c>
       <c r="I24" s="7">
-        <v>769353</v>
+        <v>818353</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2164,7 +2170,7 @@
         <v>1481</v>
       </c>
       <c r="N24" s="7">
-        <v>1375655</v>
+        <v>1422527</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2178,7 +2184,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2187,46 +2193,46 @@
         <v>648</v>
       </c>
       <c r="D25" s="7">
-        <v>725830</v>
+        <v>816609</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>939</v>
       </c>
       <c r="I25" s="7">
-        <v>769502</v>
+        <v>636402</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>1587</v>
       </c>
       <c r="N25" s="7">
-        <v>1495331</v>
+        <v>1453011</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,46 +2244,46 @@
         <v>25</v>
       </c>
       <c r="D26" s="7">
-        <v>31547</v>
+        <v>26266</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
       </c>
       <c r="I26" s="7">
-        <v>22741</v>
+        <v>19064</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>56</v>
       </c>
       <c r="N26" s="7">
-        <v>54289</v>
+        <v>45330</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,7 +2295,7 @@
         <v>673</v>
       </c>
       <c r="D27" s="7">
-        <v>757377</v>
+        <v>842875</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2304,7 +2310,7 @@
         <v>970</v>
       </c>
       <c r="I27" s="7">
-        <v>792243</v>
+        <v>655466</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2319,7 +2325,7 @@
         <v>1643</v>
       </c>
       <c r="N27" s="7">
-        <v>1549620</v>
+        <v>1498341</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2342,7 +2348,7 @@
         <v>2891</v>
       </c>
       <c r="D28" s="7">
-        <v>2913775</v>
+        <v>3008256</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>161</v>
@@ -2357,7 +2363,7 @@
         <v>4601</v>
       </c>
       <c r="I28" s="7">
-        <v>3284536</v>
+        <v>3105063</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>164</v>
@@ -2366,22 +2372,22 @@
         <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>7492</v>
       </c>
       <c r="N28" s="7">
-        <v>6198311</v>
+        <v>6113319</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,46 +2399,46 @@
         <v>236</v>
       </c>
       <c r="D29" s="7">
-        <v>232313</v>
+        <v>231318</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>358</v>
       </c>
       <c r="I29" s="7">
-        <v>252022</v>
+        <v>289985</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
         <v>594</v>
       </c>
       <c r="N29" s="7">
-        <v>484334</v>
+        <v>521303</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,7 +2450,7 @@
         <v>3127</v>
       </c>
       <c r="D30" s="7">
-        <v>3146088</v>
+        <v>3239574</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2459,7 +2465,7 @@
         <v>4959</v>
       </c>
       <c r="I30" s="7">
-        <v>3536558</v>
+        <v>3395048</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2474,7 +2480,7 @@
         <v>8086</v>
       </c>
       <c r="N30" s="7">
-        <v>6682645</v>
+        <v>6634622</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2488,7 +2494,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
